--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/NumericType.xlsx
@@ -815,7 +815,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -827,7 +827,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -1149,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1216,10 +1215,10 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1584,39 +1583,6 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/NumericType.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="NumericType" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -181,12 +168,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -216,24 +203,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,114 +317,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,25 +362,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +470,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,84 +512,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,60 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +553,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,11 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,32 +634,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,162 +653,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -831,52 +818,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1151,19 +1138,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="15.8761061946903" customWidth="1"/>
+    <col min="3" max="3" width="29.6283185840708" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="20.7522123893805" customWidth="1"/>
+    <col min="6" max="6" width="20.8761061946903" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="10" width="20.875" customWidth="1"/>
+    <col min="8" max="10" width="20.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
@@ -1194,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:10">
+    <row r="2" customFormat="1" ht="15.75" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="57" spans="1:10">
+    <row r="5" customFormat="1" ht="49.5" spans="1:10">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/NumericType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -164,6 +164,12 @@
   <si>
     <t>出生Z坐标</t>
   </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
 </sst>
 </file>
 
@@ -171,9 +177,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -211,10 +217,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,6 +233,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -235,13 +248,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -254,58 +289,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +300,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -324,24 +338,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,15 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,6 +573,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,21 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -659,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,16 +677,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,115 +695,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1135,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1570,6 +1576,29 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
